--- a/phan_2/data/data_thpt.xlsx
+++ b/phan_2/data/data_thpt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C0979-5974-4EA2-8D3C-54DF075F88B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DB204-7316-45BD-B8F9-B376EEB5EE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="441">
   <si>
     <t>Công lập</t>
   </si>
@@ -1343,13 +1343,22 @@
   </si>
   <si>
     <t>loai_truong</t>
+  </si>
+  <si>
+    <t>phong_gd</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>Trung học phổ thông</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,21 +1368,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1384,7 +1406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1394,37 +1416,480 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1435,6 +1900,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0990E7C8-1F13-47E6-BEA2-F0407C74209B}" name="Table1" displayName="Table1" ref="A1:G204" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:G204" xr:uid="{0990E7C8-1F13-47E6-BEA2-F0407C74209B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2E55DC21-1D04-4946-B6A1-19602DC8A21A}" name="ma_truong" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AD0E349D-DD1D-426D-8481-210F76018764}" name="ten_truong" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BF290DD1-3D41-43C0-B34E-70CBA3047FEE}" name="dia_chi" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4E2B62C9-1C3E-4E8B-97F8-4DE9415ADCF5}" name="loai_hinh" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{452F66BF-B675-4D47-8CC4-64BBA1C798B9}" name="loai_truong" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{78A8A576-99EA-453E-93D0-576665FB56D3}" name="phong_gd" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9E2B2A32-A5FB-4C4C-AD2D-9866D6847256}" name="cap" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1734,23 +2215,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1765,3586 +2249,4406 @@
       <c r="E1" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="F1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>79000701</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>79000702</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>79000703</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>79000704</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="D5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>79000705</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>79000706</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>79000707</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>79000708</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="D9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>79000709</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>79000710</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="D11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>79000711</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>79000712</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>79000713</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="D14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>79000714</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="D15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>79000715</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>79000716</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="D17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>79000717</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="D18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>79000718</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="D19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>79000719</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="D20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>79000720</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>79000721</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="D22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>79000722</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="D23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>79000723</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>79000724</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="D25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>79000725</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="D26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>79000726</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="D27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>79000727</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="D28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>79000728</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="D29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>79000729</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="D30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>79000730</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="D31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>79000731</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="D32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>79000732</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="D33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>79000733</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="D34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>79000734</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>79000735</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="D36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>79000736</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="D37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>79000737</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="D38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>79000738</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="D39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>79000739</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>79000740</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="D41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>79000741</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="D42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>79000742</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="D43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>79000743</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="D44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>79000744</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="D45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>79000745</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="D46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>79000746</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="D47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>79000747</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="D48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>79000748</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="D49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>79000749</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="D50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>79000750</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="D51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>79000751</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>79000752</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="D53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>79000753</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="D54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>79000754</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="D55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
         <v>79000755</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="D56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>79000756</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="D57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>79000757</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="D58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>79000758</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="D59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>79000759</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="D60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>79000760</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="D61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>79000761</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="D62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>79000762</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="D63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>79000763</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="D64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>79000764</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="D65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
         <v>79000765</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="D66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>79000767</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="D67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
         <v>79000768</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="D68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>79000769</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="D69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
         <v>79000771</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="D70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
         <v>79000772</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="D71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>79000773</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="D72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>79000774</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="D73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>79000775</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="D74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>79000776</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="F75" s="8"/>
+      <c r="G75" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>79000777</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="D76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>79000779</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="D77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>79000780</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="D78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>79000781</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="D79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>79000783</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="D80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>79000784</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="D81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>79000785</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="D82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
         <v>79000786</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="D83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>79000788</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="D84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
         <v>79000791</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="D85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
         <v>79000793</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="D86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
         <v>79000794</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="D87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
         <v>79000795</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="D88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
         <v>79000796</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="D89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
         <v>79000797</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="D90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
         <v>79000798</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="D91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
         <v>79000799</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="D92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="D93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="D94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="D95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="D96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="D97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="D98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="D99" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="D100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="D101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="D102" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="D103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="D104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="D105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="D106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="D107" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="D108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="D109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="D110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="D111" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="F111" s="8"/>
+      <c r="G111" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="D112" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
         <v>79000802</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="D118" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
         <v>79000803</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="D119" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
         <v>79000804</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="D120" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
         <v>79000805</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="D121" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
         <v>79000806</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="D122" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
         <v>79000807</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="D123" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
         <v>79000809</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="D124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
         <v>79000810</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="D125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
         <v>79000811</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="D126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
         <v>79000812</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="D127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
         <v>79000813</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="D128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
         <v>79000814</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="D129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
         <v>79000815</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="D130" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
         <v>79000816</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
         <v>79000818</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="D132" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
         <v>79000820</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="D133" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
         <v>79000822</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="D134" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
         <v>79000824</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="D135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
         <v>79000825</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="D136" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
         <v>79000826</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="D137" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
         <v>79000827</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="D138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
         <v>79000828</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="D139" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
         <v>79000829</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="D140" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
         <v>79000830</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="D141" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
         <v>79000831</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="D142" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
         <v>79000832</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="D143" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
         <v>79000834</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="D144" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="8"/>
+      <c r="G144" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
         <v>79000835</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="D145" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
         <v>79000836</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
         <v>79000838</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="D147" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
         <v>79000841</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="D148" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
         <v>79000842</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="D149" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
         <v>79000846</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="D150" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
         <v>79000848</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
         <v>79000849</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="D152" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
         <v>79000850</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="D153" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
         <v>79000851</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="D154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" s="8"/>
+      <c r="G154" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
         <v>79000852</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
         <v>79000853</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="D156" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="8"/>
+      <c r="G156" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
         <v>79000854</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="D157" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="G157" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
         <v>79000855</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="D158" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="8"/>
+      <c r="G158" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
         <v>79000856</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="D159" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
         <v>79000857</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
         <v>79000858</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="D161" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
         <v>79000859</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="D162" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="8"/>
+      <c r="G162" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
         <v>79000860</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="D163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="8"/>
+      <c r="G163" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
         <v>79000861</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="D164" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
         <v>79000862</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="D165" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
         <v>79000863</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="D166" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
         <v>79000865</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="D167" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
         <v>79000866</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="D168" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="8"/>
+      <c r="G168" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
         <v>79000868</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="D169" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="8"/>
+      <c r="G169" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
         <v>79000869</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="D170" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="8"/>
+      <c r="G170" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
         <v>79000871</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E171" s="3" t="s">
+      <c r="D171" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="F171" s="8"/>
+      <c r="G171" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
         <v>79000872</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="D172" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
         <v>79000873</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="D173" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" s="8"/>
+      <c r="G173" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
         <v>79000874</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="D174" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="8"/>
+      <c r="G174" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
         <v>79000875</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="D175" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="8"/>
+      <c r="G175" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
         <v>79000876</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="8"/>
+      <c r="G176" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
         <v>79000877</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="8"/>
+      <c r="G177" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
         <v>79000888</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" s="8"/>
+      <c r="G178" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="D179" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" s="8"/>
+      <c r="G179" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="D180" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180" s="8"/>
+      <c r="G180" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="D181" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" s="8"/>
+      <c r="G181" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="D182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182" s="8"/>
+      <c r="G182" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="D183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" s="8"/>
+      <c r="G183" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="D184" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="8"/>
+      <c r="G184" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="D185" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" s="8"/>
+      <c r="G185" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="8"/>
+      <c r="G186" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" s="8"/>
+      <c r="G187" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="D188" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="8"/>
+      <c r="G188" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="8"/>
+      <c r="G189" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="8"/>
+      <c r="G190" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="D191" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" s="8"/>
+      <c r="G191" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E192" s="3" t="s">
+      <c r="D192" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="F192" s="8"/>
+      <c r="G192" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E193" s="3" t="s">
+      <c r="D193" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="F193" s="8"/>
+      <c r="G193" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="D194" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F194" s="8"/>
+      <c r="G194" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="8"/>
+      <c r="G196" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="10" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
         <v>79760419</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="D198" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198" s="8"/>
+      <c r="G198" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
         <v>79767601</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="D199" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" s="8"/>
+      <c r="G199" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
         <v>79770601</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="D200" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="8"/>
+      <c r="G200" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
         <v>79770702</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F201" s="8"/>
+      <c r="G201" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
         <v>79774507</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="D202" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" s="8"/>
+      <c r="G202" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="10" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
         <v>79777418</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="D203" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="8"/>
+      <c r="G203" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="11">
         <v>79786701</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-    </row>
-    <row r="220" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-    </row>
-    <row r="223" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-    </row>
-    <row r="225" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-    </row>
-    <row r="226" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-    </row>
-    <row r="227" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-    </row>
-    <row r="228" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+      <c r="D204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F204" s="13"/>
+      <c r="G204" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+    </row>
+    <row r="206" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+    </row>
+    <row r="207" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="15"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+    </row>
+    <row r="208" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+    </row>
+    <row r="209" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="15"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+    </row>
+    <row r="212" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="15"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+    </row>
+    <row r="213" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="15"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+    </row>
+    <row r="214" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="15"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+    </row>
+    <row r="215" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+    </row>
+    <row r="216" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+    </row>
+    <row r="217" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="15"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+    </row>
+    <row r="218" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="15"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+    </row>
+    <row r="219" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="15"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+    </row>
+    <row r="220" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="15"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+    </row>
+    <row r="221" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+    </row>
+    <row r="222" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+    </row>
+    <row r="223" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="15"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+    </row>
+    <row r="225" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="15"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+    </row>
+    <row r="226" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+    </row>
+    <row r="227" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="15"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+    </row>
+    <row r="228" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>